--- a/data/05_input/zm.rn17b.xlsx
+++ b/data/05_input/zm.rn17b.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5D24107B-6607-40ED-AC8E-335200CB1437/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5FC98566-62E3-458F-845D-68B71E4C6EE9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E99131-3AC4-6140-AF3B-F739E44C157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D518B-67C0-4440-98CE-F8268E5CBFA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="5140" yWindow="3640" windowWidth="15340" windowHeight="14900" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
   <si>
     <t>SampleID</t>
   </si>
@@ -66,748 +66,751 @@
     <t>cold</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep1_TTAGGC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep1_TTAGGC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep2_TGACCA_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep2_TGACCA_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep3_resubmit_GGCTAC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_cold_rep3_resubmit_GGCTAC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
     <t>control</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep1_ATCACG_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep1_ATCACG_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep2_CGATGT_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep2_CGATGT_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep3_resubmit_CTTGTA_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_control_rep3_resubmit_CTTGTA_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
     <t>heat</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep1_resubmit_AGTCAA_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep1_resubmit_AGTCAA_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep2_ACAGTG_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep2_ACAGTG_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep3_resubmit_AGTTCC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73_heat_rep3_resubmit_AGTTCC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
     <t>B73xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep1_GAGTGG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep2_ACTGAT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_cold_rep3_ATTCCT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep1_GTTTCG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep2_CGTACG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s25</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s26</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s27</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_control_rep3_TTAGGC_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s28</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s29</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s30</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep1_ATCACG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s31</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s32</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s33</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep2_CGATGT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s34</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s35</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s36</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xMo17_heat_rep3_resubmit_ATGTCA_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s37</t>
   </si>
   <si>
     <t>B73xPH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s38</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s39</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep1_GCCAAT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s40</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s41</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s42</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep2_CAGATC_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s44</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s45</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_cold_rep3_ACTTGA_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s46</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s47</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s48</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep1_TGACCA_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s49</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s50</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s51</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep2_ACAGTG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s52</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s53</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s54</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_control_rep3_resubmit_CCGTCC_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s55</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s56</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s57</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep1_GATCAG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s58</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s59</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s60</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep2_TAGCTT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s61</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s62</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s63</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/B73xPH207_heat_rep3_resubmit_GTCCGC_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s64</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep1_resubmit_GTGAAA_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep1_resubmit_GTGAAA_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s65</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep2_GATCAG_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep2_GATCAG_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s66</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep3_TAGCTT_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_cold_rep3_TAGCTT_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s67</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep1_GCCAAT_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep1_GCCAAT_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s68</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep2_CAGATC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep2_CAGATC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s69</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep3_ACTTGA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_control_rep3_ACTTGA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s70</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep1_GGCTAC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep1_GGCTAC_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s71</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep2_CTTGTA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep2_CTTGTA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s72</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep3_AGTCAA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/Mo17_heat_rep3_AGTCAA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s73</t>
   </si>
   <si>
     <t>PH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep1_resubmit_GTGGCC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep1_resubmit_GTGGCC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s74</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep2_resubmit_GTTTCG_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep2_resubmit_GTTTCG_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s75</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep3_resubmit_CGTACG_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_cold_rep3_resubmit_CGTACG_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s76</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep1_AGTTCC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep1_AGTTCC_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s77</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep2_ATGTCA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep2_ATGTCA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s78</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep3_CCGTCC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_control_rep3_CCGTCC_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s79</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep1_GTCCGC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep1_GTCCGC_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s80</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep2_GTGAAA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep2_GTGAAA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s81</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep3_GTGGCC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/151015_D00635_0083_BC7N57ANXX/Project_Springer_Project_033/PH207_heat_rep3_GTGGCC_L004_R2_001.fastq</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep1_TTAGGC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep1_TTAGGC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep2_TGACCA_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep2_TGACCA_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep3_resubmit_GGCTAC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_cold_rep3_resubmit_GGCTAC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep1_ATCACG_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep1_ATCACG_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep2_CGATGT_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep2_CGATGT_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep3_resubmit_CTTGTA_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_control_rep3_resubmit_CTTGTA_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep1_resubmit_AGTCAA_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep1_resubmit_AGTCAA_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep2_ACAGTG_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep2_ACAGTG_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep3_resubmit_AGTTCC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73_heat_rep3_resubmit_AGTTCC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep1_GAGTGG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep2_ACTGAT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_cold_rep3_ATTCCT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep1_GTTTCG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep2_CGTACG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_control_rep3_TTAGGC_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep1_ATCACG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep2_CGATGT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xMo17_heat_rep3_resubmit_ATGTCA_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep1_GCCAAT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep2_CAGATC_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_cold_rep3_ACTTGA_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep1_TGACCA_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep2_ACAGTG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_control_rep3_resubmit_CCGTCC_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep1_GATCAG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep2_TAGCTT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/B73xPH207_heat_rep3_resubmit_GTCCGC_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep1_resubmit_GTGAAA_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep1_resubmit_GTGAAA_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep2_GATCAG_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep2_GATCAG_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep3_TAGCTT_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_cold_rep3_TAGCTT_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep1_GCCAAT_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep1_GCCAAT_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep2_CAGATC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep2_CAGATC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep3_ACTTGA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_control_rep3_ACTTGA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep1_GGCTAC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep1_GGCTAC_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep2_CTTGTA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep2_CTTGTA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep3_AGTCAA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/Mo17_heat_rep3_AGTCAA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep1_resubmit_GTGGCC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep1_resubmit_GTGGCC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep2_resubmit_GTTTCG_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep2_resubmit_GTTTCG_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep3_resubmit_CGTACG_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_cold_rep3_resubmit_CGTACG_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep1_AGTTCC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep1_AGTTCC_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep2_ATGTCA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep2_ATGTCA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep3_CCGTCC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_control_rep3_CCGTCC_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep1_GTCCGC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep1_GTCCGC_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep2_GTGAAA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep2_GTGAAA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep3_GTGGCC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>151015_D00635_0083_BC7N57ANXX/PH207_heat_rep3_GTGGCC_L004_R2_001.fastq</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1165,8 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,19 +1219,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1242,19 +1245,19 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1268,19 +1271,19 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1289,24 +1292,24 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1315,24 +1318,24 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1341,24 +1344,24 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1367,24 +1370,24 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1393,24 +1396,24 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1419,30 +1422,30 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1450,25 +1453,25 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1476,25 +1479,25 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1502,25 +1505,25 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1528,25 +1531,25 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1554,25 +1557,25 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1580,25 +1583,25 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1606,25 +1609,25 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1632,25 +1635,25 @@
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1658,493 +1661,493 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>8</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>99</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>99</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>99</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>99</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>99</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>9</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2152,25 +2155,25 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2178,25 +2181,25 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2204,25 +2207,25 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2230,25 +2233,25 @@
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2256,25 +2259,25 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2282,25 +2285,25 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2308,25 +2311,25 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2334,25 +2337,25 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>99</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2360,493 +2363,493 @@
       <c r="E46">
         <v>9</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
+      <c r="F48" t="s">
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I49" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
+      <c r="F50" t="s">
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>7</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
+      <c r="F54" t="s">
+        <v>99</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>9</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="I55" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
+      <c r="F59" t="s">
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>99</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
+      <c r="F61" t="s">
+        <v>99</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
+      <c r="F62" t="s">
+        <v>99</v>
       </c>
       <c r="H62" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>8</v>
       </c>
-      <c r="F63" t="b">
-        <v>1</v>
+      <c r="F63" t="s">
+        <v>99</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="I63" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>9</v>
       </c>
-      <c r="F64" t="b">
-        <v>1</v>
+      <c r="F64" t="s">
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I64" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2854,25 +2857,25 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
+      <c r="F65" t="s">
+        <v>99</v>
       </c>
       <c r="H65" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="I65" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2880,25 +2883,25 @@
       <c r="E66">
         <v>2</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
+      <c r="F66" t="s">
+        <v>99</v>
       </c>
       <c r="H66" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="I66" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2906,181 +2909,181 @@
       <c r="E67">
         <v>3</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
+      <c r="F67" t="s">
+        <v>99</v>
       </c>
       <c r="H67" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I67" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="b">
-        <v>1</v>
+      <c r="F68" t="s">
+        <v>99</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I68" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" t="b">
-        <v>1</v>
+      <c r="F69" t="s">
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="I69" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
-      <c r="F70" t="b">
-        <v>1</v>
+      <c r="F70" t="s">
+        <v>99</v>
       </c>
       <c r="H70" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I70" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
+      <c r="F71" t="s">
+        <v>99</v>
       </c>
       <c r="H71" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I71" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72" t="b">
-        <v>1</v>
+      <c r="F72" t="s">
+        <v>99</v>
       </c>
       <c r="H72" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
-      <c r="F73" t="b">
-        <v>1</v>
+      <c r="F73" t="s">
+        <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3088,25 +3091,25 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="b">
-        <v>1</v>
+      <c r="F74" t="s">
+        <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3114,25 +3117,25 @@
       <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75" t="b">
-        <v>1</v>
+      <c r="F75" t="s">
+        <v>99</v>
       </c>
       <c r="H75" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3140,170 +3143,170 @@
       <c r="E76">
         <v>3</v>
       </c>
-      <c r="F76" t="b">
-        <v>1</v>
+      <c r="F76" t="s">
+        <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I76" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="b">
-        <v>1</v>
+      <c r="F77" t="s">
+        <v>99</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I77" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78" t="b">
-        <v>1</v>
+      <c r="F78" t="s">
+        <v>99</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
-      <c r="F79" t="b">
-        <v>1</v>
+      <c r="F79" t="s">
+        <v>99</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I79" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" t="b">
-        <v>1</v>
+      <c r="F80" t="s">
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
-      <c r="F81" t="b">
-        <v>1</v>
+      <c r="F81" t="s">
+        <v>99</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
-      <c r="F82" t="b">
-        <v>1</v>
+      <c r="F82" t="s">
+        <v>99</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
